--- a/MPM/需求资料/BPC-MPM接口字典 (标注版).xlsx
+++ b/MPM/需求资料/BPC-MPM接口字典 (标注版).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="推广费主数据" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
   <si>
     <t>字段名</t>
   </si>
@@ -427,9 +427,6 @@
     <t>全球市场中心推广费录入组织</t>
   </si>
   <si>
-    <t>MK91Z24001</t>
-  </si>
-  <si>
     <t>全球市场中心专项推广费项目01</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
   </si>
   <si>
     <t>亚太销售中心市场部</t>
-  </si>
-  <si>
-    <t>MO02Z24001</t>
   </si>
   <si>
     <t>亚太销售中心HQ专项推广费项目01</t>
@@ -1540,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1980,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2752,68 +2746,73 @@
         <v>129</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C36" s="5">
         <v>2024</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="12:12">
       <c r="L39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2824,7 +2823,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>95</v>
@@ -2856,78 +2855,78 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="L42" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2941,10 +2940,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>122</v>
@@ -2952,19 +2951,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="F48" s="5">
         <v>100000</v>
@@ -2972,19 +2971,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="F49" s="5">
         <v>20000</v>

--- a/MPM/需求资料/BPC-MPM接口字典 (标注版).xlsx
+++ b/MPM/需求资料/BPC-MPM接口字典 (标注版).xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="推广费主数据" sheetId="1" r:id="rId1"/>
     <sheet name="推广费业务数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -541,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
